--- a/bioSample/bioSample_hbrown_05.30.19.xlsx
+++ b/bioSample/bioSample_hbrown_05.30.19.xlsx
@@ -64,10 +64,10 @@
     <t xml:space="preserve">H.BROWN</t>
   </si>
   <si>
-    <t xml:space="preserve">Environmental Perturbation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KN99 alpha</t>
+    <t xml:space="preserve">Environmental_Perturbation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KN99_alpha</t>
   </si>
   <si>
     <t xml:space="preserve">CNAG_00000</t>
@@ -207,7 +207,7 @@
   <dimension ref="A1:Z27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:B27"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2:F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/bioSample/bioSample_hbrown_05.30.19.xlsx
+++ b/bioSample/bioSample_hbrown_05.30.19.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="25">
   <si>
     <t xml:space="preserve">harvestDate</t>
   </si>
@@ -58,7 +58,7 @@
     <t xml:space="preserve">replicate</t>
   </si>
   <si>
-    <t xml:space="preserve">5.30.19</t>
+    <t xml:space="preserve">05.30.19</t>
   </si>
   <si>
     <t xml:space="preserve">H.BROWN</t>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t xml:space="preserve">CNAG_00000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">None</t>
   </si>
   <si>
     <t xml:space="preserve">PBS</t>
@@ -101,7 +104,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -123,12 +126,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -180,20 +177,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -214,10 +207,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z27"/>
+  <dimension ref="A1:Z67"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2:H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -281,11 +274,11 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="0" t="n">
@@ -300,14 +293,14 @@
       <c r="G2" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="0" t="n">
-        <v>0</v>
+      <c r="H2" s="0" t="s">
+        <v>17</v>
       </c>
       <c r="I2" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K2" s="0" t="n">
         <v>0</v>
@@ -329,11 +322,11 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
     </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="0" t="n">
@@ -348,14 +341,14 @@
       <c r="G3" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="0" t="n">
-        <v>0</v>
+      <c r="H3" s="0" t="s">
+        <v>17</v>
       </c>
       <c r="I3" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K3" s="0" t="n">
         <v>0</v>
@@ -364,11 +357,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="0" t="n">
@@ -383,14 +376,14 @@
       <c r="G4" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="0" t="n">
-        <v>0</v>
+      <c r="H4" s="0" t="s">
+        <v>17</v>
       </c>
       <c r="I4" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K4" s="0" t="n">
         <v>30</v>
@@ -399,11 +392,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="0" t="n">
@@ -418,14 +411,14 @@
       <c r="G5" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="0" t="n">
-        <v>0</v>
+      <c r="H5" s="0" t="s">
+        <v>17</v>
       </c>
       <c r="I5" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K5" s="0" t="n">
         <v>30</v>
@@ -434,11 +427,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="0" t="n">
@@ -453,14 +446,14 @@
       <c r="G6" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="0" t="n">
-        <v>0</v>
+      <c r="H6" s="0" t="s">
+        <v>17</v>
       </c>
       <c r="I6" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K6" s="0" t="n">
         <v>30</v>
@@ -469,11 +462,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="0" t="n">
@@ -488,14 +481,14 @@
       <c r="G7" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="0" t="n">
-        <v>0</v>
+      <c r="H7" s="0" t="s">
+        <v>17</v>
       </c>
       <c r="I7" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K7" s="0" t="n">
         <v>30</v>
@@ -504,11 +497,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="0" t="n">
@@ -523,14 +516,14 @@
       <c r="G8" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="0" t="n">
-        <v>0</v>
+      <c r="H8" s="0" t="s">
+        <v>17</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>22</v>
+      <c r="J8" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="K8" s="0" t="n">
         <v>30</v>
@@ -539,11 +532,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="0" t="n">
@@ -558,14 +551,14 @@
       <c r="G9" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="0" t="n">
-        <v>0</v>
+      <c r="H9" s="0" t="s">
+        <v>17</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>23</v>
+      <c r="J9" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="K9" s="0" t="n">
         <v>30</v>
@@ -574,11 +567,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="0" t="n">
@@ -593,14 +586,14 @@
       <c r="G10" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="0" t="n">
-        <v>0</v>
+      <c r="H10" s="0" t="s">
+        <v>17</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K10" s="0" t="n">
         <v>90</v>
@@ -609,11 +602,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="0" t="n">
@@ -628,14 +621,14 @@
       <c r="G11" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="0" t="n">
-        <v>0</v>
+      <c r="H11" s="0" t="s">
+        <v>17</v>
       </c>
       <c r="I11" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K11" s="0" t="n">
         <v>90</v>
@@ -644,11 +637,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="0" t="n">
@@ -663,14 +656,14 @@
       <c r="G12" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="0" t="n">
-        <v>0</v>
+      <c r="H12" s="0" t="s">
+        <v>17</v>
       </c>
       <c r="I12" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K12" s="0" t="n">
         <v>90</v>
@@ -679,11 +672,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="0" t="n">
@@ -698,14 +691,14 @@
       <c r="G13" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="0" t="n">
-        <v>0</v>
+      <c r="H13" s="0" t="s">
+        <v>17</v>
       </c>
       <c r="I13" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K13" s="0" t="n">
         <v>90</v>
@@ -714,11 +707,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="0" t="n">
@@ -733,14 +726,14 @@
       <c r="G14" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="0" t="n">
-        <v>0</v>
+      <c r="H14" s="0" t="s">
+        <v>17</v>
       </c>
       <c r="I14" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>22</v>
+      <c r="J14" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="K14" s="0" t="n">
         <v>90</v>
@@ -749,11 +742,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="0" t="n">
@@ -768,14 +761,14 @@
       <c r="G15" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="0" t="n">
-        <v>0</v>
+      <c r="H15" s="0" t="s">
+        <v>17</v>
       </c>
       <c r="I15" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>23</v>
+      <c r="J15" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="K15" s="0" t="n">
         <v>90</v>
@@ -784,11 +777,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="0" t="n">
@@ -803,14 +796,14 @@
       <c r="G16" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="0" t="n">
-        <v>0</v>
+      <c r="H16" s="0" t="s">
+        <v>17</v>
       </c>
       <c r="I16" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K16" s="0" t="n">
         <v>180</v>
@@ -819,11 +812,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="0" t="n">
@@ -838,14 +831,14 @@
       <c r="G17" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="H17" s="0" t="n">
-        <v>0</v>
+      <c r="H17" s="0" t="s">
+        <v>17</v>
       </c>
       <c r="I17" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K17" s="0" t="n">
         <v>180</v>
@@ -854,11 +847,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="0" t="n">
@@ -873,14 +866,14 @@
       <c r="G18" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="H18" s="0" t="n">
-        <v>0</v>
+      <c r="H18" s="0" t="s">
+        <v>17</v>
       </c>
       <c r="I18" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K18" s="0" t="n">
         <v>180</v>
@@ -889,11 +882,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C19" s="0" t="n">
@@ -908,14 +901,14 @@
       <c r="G19" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="H19" s="0" t="n">
-        <v>0</v>
+      <c r="H19" s="0" t="s">
+        <v>17</v>
       </c>
       <c r="I19" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K19" s="0" t="n">
         <v>180</v>
@@ -924,11 +917,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C20" s="0" t="n">
@@ -943,14 +936,14 @@
       <c r="G20" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="0" t="n">
-        <v>0</v>
+      <c r="H20" s="0" t="s">
+        <v>17</v>
       </c>
       <c r="I20" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>22</v>
+      <c r="J20" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="K20" s="0" t="n">
         <v>180</v>
@@ -959,11 +952,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C21" s="0" t="n">
@@ -978,14 +971,14 @@
       <c r="G21" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="H21" s="0" t="n">
-        <v>0</v>
+      <c r="H21" s="0" t="s">
+        <v>17</v>
       </c>
       <c r="I21" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>23</v>
+      <c r="J21" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="K21" s="0" t="n">
         <v>180</v>
@@ -994,11 +987,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C22" s="0" t="n">
@@ -1013,14 +1006,14 @@
       <c r="G22" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="H22" s="0" t="n">
-        <v>0</v>
+      <c r="H22" s="0" t="s">
+        <v>17</v>
       </c>
       <c r="I22" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K22" s="0" t="n">
         <v>1440</v>
@@ -1029,11 +1022,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="0" t="n">
@@ -1048,14 +1041,14 @@
       <c r="G23" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="H23" s="0" t="n">
-        <v>0</v>
+      <c r="H23" s="0" t="s">
+        <v>17</v>
       </c>
       <c r="I23" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K23" s="0" t="n">
         <v>1440</v>
@@ -1064,11 +1057,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="0" t="n">
@@ -1083,14 +1076,14 @@
       <c r="G24" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="H24" s="0" t="n">
-        <v>0</v>
+      <c r="H24" s="0" t="s">
+        <v>17</v>
       </c>
       <c r="I24" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K24" s="0" t="n">
         <v>1440</v>
@@ -1099,11 +1092,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C25" s="0" t="n">
@@ -1118,14 +1111,14 @@
       <c r="G25" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="H25" s="0" t="n">
-        <v>0</v>
+      <c r="H25" s="0" t="s">
+        <v>17</v>
       </c>
       <c r="I25" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K25" s="0" t="n">
         <v>1440</v>
@@ -1134,11 +1127,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C26" s="0" t="n">
@@ -1153,14 +1146,14 @@
       <c r="G26" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="H26" s="0" t="n">
-        <v>0</v>
+      <c r="H26" s="0" t="s">
+        <v>17</v>
       </c>
       <c r="I26" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>22</v>
+      <c r="J26" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="K26" s="0" t="n">
         <v>1440</v>
@@ -1169,11 +1162,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C27" s="0" t="n">
@@ -1188,14 +1181,14 @@
       <c r="G27" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="H27" s="0" t="n">
-        <v>0</v>
+      <c r="H27" s="0" t="s">
+        <v>17</v>
       </c>
       <c r="I27" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>23</v>
+      <c r="J27" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="K27" s="0" t="n">
         <v>1440</v>
@@ -1204,6 +1197,9 @@
         <v>3</v>
       </c>
     </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/bioSample/bioSample_hbrown_05.30.19.xlsx
+++ b/bioSample/bioSample_hbrown_05.30.19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/bioSample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE4EBD7A-3EF7-CA48-8BAF-3E58F68A40B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F722069-1C76-C444-917B-7C1091A4AB95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="21">
   <si>
     <t>harvestDate</t>
   </si>
@@ -37,9 +37,6 @@
   </si>
   <si>
     <t>experimentDesign</t>
-  </si>
-  <si>
-    <t>experimentObservations</t>
   </si>
   <si>
     <t>strain</t>
@@ -451,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z27"/>
+  <dimension ref="A1:W27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -463,10 +460,10 @@
     <col min="2" max="2" width="16.1640625" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="1025" width="10.6640625" customWidth="1"/>
+    <col min="5" max="1022" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -488,15 +485,15 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
-        <v>9</v>
-      </c>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
@@ -508,21 +505,21 @@
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
         <v>12</v>
       </c>
       <c r="F2" t="s">
@@ -531,15 +528,15 @@
       <c r="G2" t="s">
         <v>14</v>
       </c>
-      <c r="J2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2">
+      <c r="H2">
         <v>0</v>
       </c>
-      <c r="L2">
-        <v>3</v>
-      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
@@ -550,21 +547,21 @@
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
         <v>12</v>
       </c>
       <c r="F3" t="s">
@@ -573,709 +570,706 @@
       <c r="G3" t="s">
         <v>14</v>
       </c>
-      <c r="J3" t="s">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
         <v>15</v>
       </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4">
+      <c r="H4">
         <v>30</v>
       </c>
-      <c r="L4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="I4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
         <v>12</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5">
+        <v>16</v>
+      </c>
+      <c r="H5">
         <v>30</v>
       </c>
-      <c r="L5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="I5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
         <v>12</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6">
+        <v>17</v>
+      </c>
+      <c r="H6">
         <v>30</v>
       </c>
-      <c r="L6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="I6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
       <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
         <v>12</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7">
+        <v>18</v>
+      </c>
+      <c r="H7">
         <v>30</v>
       </c>
-      <c r="L7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="I7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
       <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
         <v>12</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
       </c>
-      <c r="G8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8">
+      <c r="G8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8">
         <v>30</v>
       </c>
-      <c r="L8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="I8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9">
         <v>8</v>
       </c>
       <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
         <v>12</v>
       </c>
       <c r="F9" t="s">
         <v>13</v>
       </c>
-      <c r="G9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K9">
+      <c r="G9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9">
         <v>30</v>
       </c>
-      <c r="L9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="I9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10">
         <v>9</v>
       </c>
       <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
         <v>12</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10">
+        <v>90</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s">
         <v>16</v>
       </c>
-      <c r="K10">
+      <c r="H11">
         <v>90</v>
       </c>
-      <c r="L10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="I11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s">
         <v>17</v>
       </c>
-      <c r="K11">
+      <c r="H12">
         <v>90</v>
       </c>
-      <c r="L11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" t="s">
-        <v>14</v>
-      </c>
-      <c r="J12" t="s">
+      <c r="I12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" t="s">
         <v>18</v>
       </c>
-      <c r="K12">
+      <c r="H13">
         <v>90</v>
       </c>
-      <c r="L12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13">
-        <v>12</v>
-      </c>
-      <c r="D13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J13" t="s">
+      <c r="I13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K13">
+      <c r="H14">
         <v>90</v>
       </c>
-      <c r="L13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14">
-        <v>13</v>
-      </c>
-      <c r="D14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" t="s">
-        <v>14</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K14">
-        <v>90</v>
-      </c>
-      <c r="L14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="I14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15">
         <v>14</v>
       </c>
       <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
         <v>12</v>
       </c>
       <c r="F15" t="s">
         <v>13</v>
       </c>
-      <c r="G15" t="s">
-        <v>14</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K15">
+      <c r="G15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15">
         <v>90</v>
       </c>
-      <c r="L15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="I15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16">
         <v>15</v>
       </c>
       <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
         <v>12</v>
       </c>
       <c r="F16" t="s">
         <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>14</v>
-      </c>
-      <c r="J16" t="s">
-        <v>16</v>
-      </c>
-      <c r="K16">
+        <v>15</v>
+      </c>
+      <c r="H16">
         <v>180</v>
       </c>
-      <c r="L16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C17">
         <v>16</v>
       </c>
       <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" t="s">
         <v>12</v>
       </c>
       <c r="F17" t="s">
         <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>14</v>
-      </c>
-      <c r="J17" t="s">
-        <v>17</v>
-      </c>
-      <c r="K17">
+        <v>16</v>
+      </c>
+      <c r="H17">
         <v>180</v>
       </c>
-      <c r="L17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C18">
         <v>17</v>
       </c>
       <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
         <v>12</v>
       </c>
       <c r="F18" t="s">
         <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J18" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18">
+        <v>17</v>
+      </c>
+      <c r="H18">
         <v>180</v>
       </c>
-      <c r="L18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C19">
         <v>18</v>
       </c>
       <c r="D19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" t="s">
         <v>12</v>
       </c>
       <c r="F19" t="s">
         <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>14</v>
-      </c>
-      <c r="J19" t="s">
-        <v>19</v>
-      </c>
-      <c r="K19">
+        <v>18</v>
+      </c>
+      <c r="H19">
         <v>180</v>
       </c>
-      <c r="L19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C20">
         <v>19</v>
       </c>
       <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s">
         <v>12</v>
       </c>
       <c r="F20" t="s">
         <v>13</v>
       </c>
-      <c r="G20" t="s">
-        <v>14</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K20">
+      <c r="G20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20">
         <v>180</v>
       </c>
-      <c r="L20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C21">
         <v>20</v>
       </c>
       <c r="D21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" t="s">
         <v>12</v>
       </c>
       <c r="F21" t="s">
         <v>13</v>
       </c>
-      <c r="G21" t="s">
-        <v>14</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K21">
+      <c r="G21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21">
         <v>180</v>
       </c>
-      <c r="L21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C22">
         <v>21</v>
       </c>
       <c r="D22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" t="s">
         <v>12</v>
       </c>
       <c r="F22" t="s">
         <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J22" t="s">
-        <v>16</v>
-      </c>
-      <c r="K22">
+        <v>15</v>
+      </c>
+      <c r="H22">
         <v>1440</v>
       </c>
-      <c r="L22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C23">
         <v>22</v>
       </c>
       <c r="D23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" t="s">
         <v>12</v>
       </c>
       <c r="F23" t="s">
         <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>14</v>
-      </c>
-      <c r="J23" t="s">
-        <v>17</v>
-      </c>
-      <c r="K23">
+        <v>16</v>
+      </c>
+      <c r="H23">
         <v>1440</v>
       </c>
-      <c r="L23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C24">
         <v>23</v>
       </c>
       <c r="D24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" t="s">
         <v>12</v>
       </c>
       <c r="F24" t="s">
         <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>14</v>
-      </c>
-      <c r="J24" t="s">
-        <v>18</v>
-      </c>
-      <c r="K24">
+        <v>17</v>
+      </c>
+      <c r="H24">
         <v>1440</v>
       </c>
-      <c r="L24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C25">
         <v>24</v>
       </c>
       <c r="D25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" t="s">
         <v>12</v>
       </c>
       <c r="F25" t="s">
         <v>13</v>
       </c>
       <c r="G25" t="s">
-        <v>14</v>
-      </c>
-      <c r="J25" t="s">
-        <v>19</v>
-      </c>
-      <c r="K25">
+        <v>18</v>
+      </c>
+      <c r="H25">
         <v>1440</v>
       </c>
-      <c r="L25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C26">
         <v>25</v>
       </c>
       <c r="D26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" t="s">
         <v>12</v>
       </c>
       <c r="F26" t="s">
         <v>13</v>
       </c>
-      <c r="G26" t="s">
-        <v>14</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K26">
+      <c r="G26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26">
         <v>1440</v>
       </c>
-      <c r="L26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C27">
         <v>26</v>
       </c>
       <c r="D27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" t="s">
         <v>12</v>
       </c>
       <c r="F27" t="s">
         <v>13</v>
       </c>
-      <c r="G27" t="s">
-        <v>14</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K27">
+      <c r="G27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H27">
         <v>1440</v>
       </c>
-      <c r="L27">
+      <c r="I27">
         <v>3</v>
       </c>
     </row>
